--- a/results/I3_N5_M2_T15_C100_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2833.645752159522</v>
+        <v>823.9011839847823</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2779998779296875</v>
+        <v>0.1760001182556152</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.845884577549634e-13</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.28691311485504</v>
+        <v>20.57702921450956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.02903703537284</v>
+        <v>4.798343757406281</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.257876079482192</v>
+        <v>2.122498527679113</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2604.470000000558</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.66</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43123270582124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.836925852814986</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87750147232089</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.37739353073904</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.021419533135267</v>
+        <v>13.18449368032028</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,10 +957,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,57 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>260.1829999999913</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="4">
@@ -1102,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.8959999999933</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>200.2640000000302</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2630000000063</v>
+        <v>158.8</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>185.6019999999607</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="8">
@@ -1146,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>260.1830000000102</v>
+        <v>158.8</v>
       </c>
     </row>
     <row r="9">
@@ -1157,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>200.264000000047</v>
+        <v>113.8</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>160.1830000000094</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="3">
@@ -1215,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100.2640000000464</v>
+        <v>13.8</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1273,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15.708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1306,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.958</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,7 +1294,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1358,7 +1305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1369,34 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
